--- a/HTML/0 Excel SRC Files/2 Excel.xlsx
+++ b/HTML/0 Excel SRC Files/2 Excel.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 Islam\3 SOFT\QuickAccess\HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC08E40C-8FDB-4C84-A246-01CCCE646234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15756DB1-4635-45EE-9897-88DE02933538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
-    <sheet name="FB Pages" sheetId="3" r:id="rId2"/>
-    <sheet name="Others" sheetId="2" r:id="rId3"/>
+    <sheet name="Borsa" sheetId="4" r:id="rId2"/>
+    <sheet name="FB Pages" sheetId="3" r:id="rId3"/>
+    <sheet name="Others" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>بنكي</t>
   </si>
@@ -164,9 +165,6 @@
     <t>البورصجية</t>
   </si>
   <si>
-    <t>thndr app</t>
-  </si>
-  <si>
     <t>افهم بورصة</t>
   </si>
   <si>
@@ -273,6 +271,15 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>QNB Online</t>
+  </si>
+  <si>
+    <t>بورصة</t>
+  </si>
+  <si>
+    <t>Thndr APP</t>
   </si>
 </sst>
 </file>
@@ -320,8 +327,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FFFFC000"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -724,15 +731,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="24.7109375" style="3"/>
+    <col min="1" max="1" width="31.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="24.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -758,7 +773,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -806,11 +821,8 @@
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -820,11 +832,11 @@
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -843,183 +855,175 @@
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="I7" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="E13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="G13" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A8:I8"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A11:I11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.facebook.com/BankyEgypt" xr:uid="{5AEBA331-8899-4089-94E3-C3A6204D6E0D}"/>
@@ -1042,64 +1046,304 @@
     <hyperlink ref="E3" r:id="rId18" display="https://www.youtube.com/@fouadsidky/videos" xr:uid="{F368E38D-5731-40E7-8FC1-307D1121F61A}"/>
     <hyperlink ref="F3" r:id="rId19" display="https://www.youtube.com/@user-wi1ur9xw3i/videos" xr:uid="{31E36123-26A1-4BC0-B55D-FDC57DA05669}"/>
     <hyperlink ref="I4" r:id="rId20" display="https://www.facebook.com/groups/841535960276202" xr:uid="{CD84C046-39C9-4A9B-81B2-6A3B0DD78476}"/>
-    <hyperlink ref="G3" r:id="rId21" display="https://www.youtube.com/@SharkTankEgypt/videos" xr:uid="{B2E4F54C-D3B6-43A5-B622-0195A8EA95F4}"/>
+    <hyperlink ref="I6" r:id="rId21" display="https://www.youtube.com/@SharkTankEgypt/videos" xr:uid="{B2E4F54C-D3B6-43A5-B622-0195A8EA95F4}"/>
     <hyperlink ref="A4" r:id="rId22" display="https://www.youtube.com/@user-lm7yr8pq3c/videos" xr:uid="{837296DA-5AEA-4E45-928B-3BD2717F5323}"/>
     <hyperlink ref="B4" r:id="rId23" display="https://www.marketwatch.com/" xr:uid="{697D936E-6ABA-4C79-BDF1-6BD16F61F80D}"/>
     <hyperlink ref="A6" r:id="rId24" display="https://sa.investing.com/" xr:uid="{7A2E51BB-AC69-4695-8BB3-DAB6A40F310D}"/>
     <hyperlink ref="B6" r:id="rId25" display="https://www.mubasher.info/countries/eg" xr:uid="{BA55433B-41BD-4394-A213-C6A86278D0F0}"/>
-    <hyperlink ref="C6" r:id="rId26" display="https://egx.com.eg/ar/homepage.aspx" xr:uid="{A6E7C109-02E2-45FC-A141-47D8ECE45B52}"/>
-    <hyperlink ref="D6" r:id="rId27" display="https://www.facebook.com/EgyptianExchangeEGX" xr:uid="{2D7EE186-126C-40F2-B57E-F2D31D45ACFB}"/>
-    <hyperlink ref="E6" r:id="rId28" display="https://www.facebook.com/groups/496551342015919" xr:uid="{279E9F47-E339-4455-85D2-4BDC18CC2B0C}"/>
-    <hyperlink ref="F6" r:id="rId29" display="https://www.youtube.com/@Dr.TarekAtef/videos" xr:uid="{B97216FF-449D-452B-9D8F-D432618ABFC6}"/>
-    <hyperlink ref="G6" r:id="rId30" display="https://www.youtube.com/c/Arabicbroker1/videos" xr:uid="{BFFD2CEE-A24C-4C5B-A55C-6C6A22ED7752}"/>
-    <hyperlink ref="H6" r:id="rId31" display="https://www.youtube.com/c/%D8%A7%D9%84%D8%A8%D9%88%D8%B1%D8%B5%D9%87%D9%85%D8%B9%D9%81%D8%A7%D8%B1%D9%88%D9%82/videos" xr:uid="{483ED73C-A05A-4F7F-BB16-8D7D54359A05}"/>
-    <hyperlink ref="A7" r:id="rId32" xr:uid="{BA54FCCD-4A96-4B26-BEFF-AE98883B3EA8}"/>
-    <hyperlink ref="B7" r:id="rId33" display="https://www.facebook.com/AzimutEgypt" xr:uid="{D9FF6839-C51B-4475-8BCB-1887EB8EE04C}"/>
-    <hyperlink ref="C7" r:id="rId34" display="https://www.facebook.com/mmali83" xr:uid="{FE2CF1FC-629C-4716-B612-0BF528D0F44A}"/>
-    <hyperlink ref="D7" r:id="rId35" display="https://www.facebook.com/groups/qeyser.soze" xr:uid="{AEBF3669-A377-42A3-8032-530AF690AD4D}"/>
-    <hyperlink ref="E7" r:id="rId36" display="https://www.efghermesone.com/" xr:uid="{ACA9DA10-B019-4FD1-A563-A2228E8718CD}"/>
-    <hyperlink ref="F7" r:id="rId37" display="https://ipf.eg/" xr:uid="{E21DDBD8-B341-4E35-B614-DB94F5773C47}"/>
-    <hyperlink ref="G7" r:id="rId38" display="https://www.youtube.com/@elborsagia/videos" xr:uid="{72A1A09D-3816-45E2-A60E-FC8C62397DA4}"/>
-    <hyperlink ref="H7" r:id="rId39" display="https://www.facebook.com/thndrapp" xr:uid="{893C3F45-BF7B-434B-B7B5-15133846F92F}"/>
-    <hyperlink ref="A8" r:id="rId40" display="https://www.facebook.com/borsacourses" xr:uid="{729CA1BF-3C0E-495D-A865-462A80764C4F}"/>
-    <hyperlink ref="A10" r:id="rId41" display="https://www.youtube.com/c/FinBeeAcademy/videos" xr:uid="{3C4F87BB-E2B6-4BA4-84A7-1EA9E610905A}"/>
-    <hyperlink ref="B10" r:id="rId42" display="https://www.youtube.com/c/GrowthEngine100/videos" xr:uid="{EAA98EBE-ECD3-43C5-B144-EE12A6873EF3}"/>
-    <hyperlink ref="C10" r:id="rId43" display="https://www.youtube.com/c/ehabmes/videos" xr:uid="{E72A32A6-DD4E-4A06-89F8-BCC96E55858F}"/>
-    <hyperlink ref="D10" r:id="rId44" display="https://www.youtube.com/c/E3melBusinessArabic/videos" xr:uid="{A0679EB0-239F-4947-B58C-95623817DF58}"/>
-    <hyperlink ref="E10" r:id="rId45" display="https://www.youtube.com/channel/UCCEn3Vf1_QDBVTuz9EXrDtw/videos" xr:uid="{504F78F4-0462-42AE-B2BF-0DD312AAFD1D}"/>
-    <hyperlink ref="F10" r:id="rId46" display="https://www.youtube.com/user/samatawy/videos" xr:uid="{F0D4991C-1EFA-498A-A8DD-B304C8B9E728}"/>
-    <hyperlink ref="G10" r:id="rId47" display="https://www.youtube.com/channel/UCZ4C_uCzDQYXOqwfDfzfRhQ/videos" xr:uid="{31EED12E-5CD0-419F-8AF2-EA0ED84E6975}"/>
-    <hyperlink ref="H10" r:id="rId48" display="https://www.youtube.com/channel/UCeR2z-G7ncZSWHIv3pOcegA/videos" xr:uid="{22C9832C-AC17-40D5-948D-D396D544C8C8}"/>
-    <hyperlink ref="A11" r:id="rId49" display="https://corporatefinanceinstitute.com/" xr:uid="{899EB61F-FFB9-45F9-9D53-DCD5AD77D4B9}"/>
-    <hyperlink ref="B11" r:id="rId50" display="https://www.facebook.com/Accounting.office.hatem/posts/719488698235998/" xr:uid="{99BF00BA-4CA3-4974-A99A-805210122F96}"/>
-    <hyperlink ref="C11" r:id="rId51" display="https://drive.google.com/drive/folders/0BzSN-W9vv152SHBaUF9UekdUNXM?fbclid=IwAR2aH0ObzqVzouPewjUUAEWq_6lz4ZJpWQoE41WRnhYo7pJWEV0qc4pEJrY&amp;resourcekey=0-20oUDhCfamMKTlXHvkSt7A" xr:uid="{4563E7B5-0CF6-4355-AC42-F4BF9AF22FB4}"/>
-    <hyperlink ref="D11" r:id="rId52" display="https://www.youtube.com/@user-qg8tu7xk6l/videos" xr:uid="{EC45EC9D-C463-4540-8C7A-5B2DC8BAB310}"/>
-    <hyperlink ref="E11" r:id="rId53" display="https://www.youtube.com/@AbdullahGalal/videos" xr:uid="{0C5CFDB7-36F6-4A16-9BE5-5B3D453857BD}"/>
-    <hyperlink ref="F11" r:id="rId54" display="https://www.youtube.com/@Accountingforever/videos" xr:uid="{065D8E59-D497-4BA6-AB44-FB9603DFB426}"/>
-    <hyperlink ref="A13" r:id="rId55" display="https://www.cbe.org.eg/ar/Pages/HighlightsListing.aspx" xr:uid="{7F629FBC-1CCC-49F4-884A-ED2D762C4AFB}"/>
-    <hyperlink ref="B13" r:id="rId56" display="https://www.ebi.gov.eg/?lang=ar" xr:uid="{9441585A-43C9-4196-8309-E81A38F6D670}"/>
-    <hyperlink ref="C13" r:id="rId57" display="https://www.banquemisr.com/ar" xr:uid="{EB35EEAB-899D-47AD-A113-343222CDF74A}"/>
-    <hyperlink ref="D13" r:id="rId58" display="https://www.instapay.eg/" xr:uid="{9F19217B-4E5E-46A7-A36F-DD4BE77C05FC}"/>
-    <hyperlink ref="E13" r:id="rId59" location="/AR/Home" display="https://www.nbe.com.eg/NBE/E/ - /AR/Home" xr:uid="{1DE57BD2-4AE9-44D8-B66D-CF9A707A72D2}"/>
-    <hyperlink ref="F13" r:id="rId60" display="https://www.incometax.gov.eg/" xr:uid="{2E46C8C3-9985-472D-A942-73E42C9CFB0A}"/>
-    <hyperlink ref="G13" r:id="rId61" display="https://www.egyptpost.org/enpo/ar/joinUs" xr:uid="{1CE101B3-4C3A-4CCF-8695-36481898D16A}"/>
-    <hyperlink ref="H13" r:id="rId62" display="https://www.eta.gov.eg/ar/news" xr:uid="{F5D62C12-A424-443B-8C90-7C2CD1B1DBC9}"/>
-    <hyperlink ref="I13" r:id="rId63" display="https://tfe.ebi.gov.eg/" xr:uid="{759ED415-7606-4748-B0EA-620D0AECA894}"/>
-    <hyperlink ref="A14" r:id="rId64" display="https://efhambusiness.com/index.php" xr:uid="{1D5E71F4-B79F-4251-BE50-A9B3B67DE276}"/>
-    <hyperlink ref="B14" r:id="rId65" display="https://www.alahlynet.com.eg/" xr:uid="{6F7FAC64-3F23-4315-B84D-C3AEB547D65A}"/>
-    <hyperlink ref="C14" r:id="rId66" display="https://www.egyptianbanks.com/" xr:uid="{CA46B6A3-5A76-4ED6-9FD0-76474873F3FC}"/>
-    <hyperlink ref="D14" r:id="rId67" display="https://www.paypal.com/eg/home" xr:uid="{D0FD99E4-C209-43BB-86FA-E60C506E1B84}"/>
+    <hyperlink ref="D6" r:id="rId26" display="https://www.facebook.com/groups/496551342015919" xr:uid="{279E9F47-E339-4455-85D2-4BDC18CC2B0C}"/>
+    <hyperlink ref="E6" r:id="rId27" display="https://www.youtube.com/@Dr.TarekAtef/videos" xr:uid="{B97216FF-449D-452B-9D8F-D432618ABFC6}"/>
+    <hyperlink ref="F6" r:id="rId28" display="https://www.youtube.com/c/Arabicbroker1/videos" xr:uid="{BFFD2CEE-A24C-4C5B-A55C-6C6A22ED7752}"/>
+    <hyperlink ref="G6" r:id="rId29" display="https://www.youtube.com/c/%D8%A7%D9%84%D8%A8%D9%88%D8%B1%D8%B5%D9%87%D9%85%D8%B9%D9%81%D8%A7%D8%B1%D9%88%D9%82/videos" xr:uid="{483ED73C-A05A-4F7F-BB16-8D7D54359A05}"/>
+    <hyperlink ref="C6" r:id="rId30" xr:uid="{BA54FCCD-4A96-4B26-BEFF-AE98883B3EA8}"/>
+    <hyperlink ref="A7" r:id="rId31" display="https://www.facebook.com/mmali83" xr:uid="{FE2CF1FC-629C-4716-B612-0BF528D0F44A}"/>
+    <hyperlink ref="B7" r:id="rId32" display="https://www.facebook.com/groups/qeyser.soze" xr:uid="{AEBF3669-A377-42A3-8032-530AF690AD4D}"/>
+    <hyperlink ref="C7" r:id="rId33" display="https://ipf.eg/" xr:uid="{E21DDBD8-B341-4E35-B614-DB94F5773C47}"/>
+    <hyperlink ref="D7" r:id="rId34" display="https://www.youtube.com/@elborsagia/videos" xr:uid="{72A1A09D-3816-45E2-A60E-FC8C62397DA4}"/>
+    <hyperlink ref="E7" r:id="rId35" display="https://www.facebook.com/borsacourses" xr:uid="{729CA1BF-3C0E-495D-A865-462A80764C4F}"/>
+    <hyperlink ref="A9" r:id="rId36" display="https://www.youtube.com/c/FinBeeAcademy/videos" xr:uid="{3C4F87BB-E2B6-4BA4-84A7-1EA9E610905A}"/>
+    <hyperlink ref="B9" r:id="rId37" display="https://www.youtube.com/c/GrowthEngine100/videos" xr:uid="{EAA98EBE-ECD3-43C5-B144-EE12A6873EF3}"/>
+    <hyperlink ref="C9" r:id="rId38" display="https://www.youtube.com/c/ehabmes/videos" xr:uid="{E72A32A6-DD4E-4A06-89F8-BCC96E55858F}"/>
+    <hyperlink ref="D9" r:id="rId39" display="https://www.youtube.com/c/E3melBusinessArabic/videos" xr:uid="{A0679EB0-239F-4947-B58C-95623817DF58}"/>
+    <hyperlink ref="E9" r:id="rId40" display="https://www.youtube.com/channel/UCCEn3Vf1_QDBVTuz9EXrDtw/videos" xr:uid="{504F78F4-0462-42AE-B2BF-0DD312AAFD1D}"/>
+    <hyperlink ref="F9" r:id="rId41" display="https://www.youtube.com/user/samatawy/videos" xr:uid="{F0D4991C-1EFA-498A-A8DD-B304C8B9E728}"/>
+    <hyperlink ref="G9" r:id="rId42" display="https://www.youtube.com/channel/UCZ4C_uCzDQYXOqwfDfzfRhQ/videos" xr:uid="{31EED12E-5CD0-419F-8AF2-EA0ED84E6975}"/>
+    <hyperlink ref="G10" r:id="rId43" display="https://www.youtube.com/channel/UCeR2z-G7ncZSWHIv3pOcegA/videos" xr:uid="{22C9832C-AC17-40D5-948D-D396D544C8C8}"/>
+    <hyperlink ref="A10" r:id="rId44" display="https://corporatefinanceinstitute.com/" xr:uid="{899EB61F-FFB9-45F9-9D53-DCD5AD77D4B9}"/>
+    <hyperlink ref="B10" r:id="rId45" display="https://www.facebook.com/Accounting.office.hatem/posts/719488698235998/" xr:uid="{99BF00BA-4CA3-4974-A99A-805210122F96}"/>
+    <hyperlink ref="C10" r:id="rId46" display="https://drive.google.com/drive/folders/0BzSN-W9vv152SHBaUF9UekdUNXM?fbclid=IwAR2aH0ObzqVzouPewjUUAEWq_6lz4ZJpWQoE41WRnhYo7pJWEV0qc4pEJrY&amp;resourcekey=0-20oUDhCfamMKTlXHvkSt7A" xr:uid="{4563E7B5-0CF6-4355-AC42-F4BF9AF22FB4}"/>
+    <hyperlink ref="D10" r:id="rId47" display="https://www.youtube.com/@user-qg8tu7xk6l/videos" xr:uid="{EC45EC9D-C463-4540-8C7A-5B2DC8BAB310}"/>
+    <hyperlink ref="E10" r:id="rId48" display="https://www.youtube.com/@AbdullahGalal/videos" xr:uid="{0C5CFDB7-36F6-4A16-9BE5-5B3D453857BD}"/>
+    <hyperlink ref="F10" r:id="rId49" display="https://www.youtube.com/@Accountingforever/videos" xr:uid="{065D8E59-D497-4BA6-AB44-FB9603DFB426}"/>
+    <hyperlink ref="A12" r:id="rId50" display="https://www.cbe.org.eg/ar/Pages/HighlightsListing.aspx" xr:uid="{7F629FBC-1CCC-49F4-884A-ED2D762C4AFB}"/>
+    <hyperlink ref="B12" r:id="rId51" display="https://www.ebi.gov.eg/?lang=ar" xr:uid="{9441585A-43C9-4196-8309-E81A38F6D670}"/>
+    <hyperlink ref="A13" r:id="rId52" display="https://www.banquemisr.com/ar" xr:uid="{EB35EEAB-899D-47AD-A113-343222CDF74A}"/>
+    <hyperlink ref="D12" r:id="rId53" display="https://www.instapay.eg/" xr:uid="{9F19217B-4E5E-46A7-A36F-DD4BE77C05FC}"/>
+    <hyperlink ref="D13" r:id="rId54" location="/AR/Home" display="https://www.nbe.com.eg/NBE/E/ - /AR/Home" xr:uid="{1DE57BD2-4AE9-44D8-B66D-CF9A707A72D2}"/>
+    <hyperlink ref="E12" r:id="rId55" display="https://www.incometax.gov.eg/" xr:uid="{2E46C8C3-9985-472D-A942-73E42C9CFB0A}"/>
+    <hyperlink ref="F12" r:id="rId56" display="https://www.eta.gov.eg/ar/news" xr:uid="{F5D62C12-A424-443B-8C90-7C2CD1B1DBC9}"/>
+    <hyperlink ref="F13" r:id="rId57" display="https://tfe.ebi.gov.eg/" xr:uid="{759ED415-7606-4748-B0EA-620D0AECA894}"/>
+    <hyperlink ref="B13" r:id="rId58" display="https://efhambusiness.com/index.php" xr:uid="{1D5E71F4-B79F-4251-BE50-A9B3B67DE276}"/>
+    <hyperlink ref="C13" r:id="rId59" display="https://www.alahlynet.com.eg/" xr:uid="{6F7FAC64-3F23-4315-B84D-C3AEB547D65A}"/>
+    <hyperlink ref="E13" r:id="rId60" display="https://www.egyptianbanks.com/" xr:uid="{CA46B6A3-5A76-4ED6-9FD0-76474873F3FC}"/>
+    <hyperlink ref="G12" r:id="rId61" display="https://www.paypal.com/eg/home" xr:uid="{D0FD99E4-C209-43BB-86FA-E60C506E1B84}"/>
     <hyperlink ref="I2" location="'FB Pages'!A1" display="Facebook Pages" xr:uid="{90B3F88A-480D-4335-881A-6C90AB1186A0}"/>
-    <hyperlink ref="A2" r:id="rId68" display="https://www.youtube.com/@ektesadmanzly/videos" xr:uid="{2E16729C-5D4B-4104-A268-2B9593468C87}"/>
+    <hyperlink ref="A2" r:id="rId62" display="https://www.youtube.com/@ektesadmanzly/videos" xr:uid="{2E16729C-5D4B-4104-A268-2B9593468C87}"/>
     <hyperlink ref="I3" location="Others!A1" display="FB Pages" xr:uid="{E63B2E9D-9F1B-4A51-944E-3D13A17347B7}"/>
-    <hyperlink ref="I1" r:id="rId69" display="FB Pages" xr:uid="{8421D763-5AD2-4423-9C87-FC97071C46B1}"/>
+    <hyperlink ref="I1" r:id="rId63" display="FB Pages" xr:uid="{8421D763-5AD2-4423-9C87-FC97071C46B1}"/>
+    <hyperlink ref="C12" r:id="rId64" xr:uid="{6AB3CC67-BB58-4582-8D8C-40B38FEF3FA3}"/>
+    <hyperlink ref="G13" r:id="rId65" display="https://www.egyptpost.org/enpo/ar/joinUs" xr:uid="{1CE101B3-4C3A-4CCF-8695-36481898D16A}"/>
+    <hyperlink ref="I7" location="Borsa!A1" display="بورصة" xr:uid="{2D59AB0B-5C40-409A-B7B7-7D062031AF43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId70"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCB48D7-D4A6-411A-ADCA-0D108D936B7A}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J1" location="'0'!A1" display="Back" xr:uid="{001C222B-072A-429D-A771-C232383BF72F}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://egx.com.eg/ar/homepage.aspx" xr:uid="{A6E7C109-02E2-45FC-A141-47D8ECE45B52}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.facebook.com/EgyptianExchangeEGX" xr:uid="{2D7EE186-126C-40F2-B57E-F2D31D45ACFB}"/>
+    <hyperlink ref="C1" r:id="rId3" display="https://www.facebook.com/AzimutEgypt" xr:uid="{D9FF6839-C51B-4475-8BCB-1887EB8EE04C}"/>
+    <hyperlink ref="D1" r:id="rId4" display="https://www.efghermesone.com/" xr:uid="{ACA9DA10-B019-4FD1-A563-A2228E8718CD}"/>
+    <hyperlink ref="E1" r:id="rId5" display="https://www.facebook.com/thndrapp" xr:uid="{893C3F45-BF7B-434B-B7B5-15133846F92F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2D3BC2-1FD0-4C93-A9E6-602B2BEF9786}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1126,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,10 +1381,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1159,12 +1403,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB40194-3ECA-4A7F-8D22-F6138545FD9D}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,16 +1418,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/HTML/0 Excel SRC Files/2 Excel.xlsx
+++ b/HTML/0 Excel SRC Files/2 Excel.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15756DB1-4635-45EE-9897-88DE02933538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EF53BB-10DF-4DF5-9130-5116BE5A29ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="Borsa" sheetId="4" r:id="rId2"/>
     <sheet name="FB Pages" sheetId="3" r:id="rId3"/>
     <sheet name="Others" sheetId="2" r:id="rId4"/>
+    <sheet name="Gold" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
   <si>
     <t>بنكي</t>
   </si>
@@ -144,9 +145,6 @@
     <t>البورصه مع فاروق</t>
   </si>
   <si>
-    <t>[Gold]</t>
-  </si>
-  <si>
     <t>ازيموت مصر</t>
   </si>
   <si>
@@ -280,13 +278,46 @@
   </si>
   <si>
     <t>Thndr APP</t>
+  </si>
+  <si>
+    <t>Gold Price</t>
+  </si>
+  <si>
+    <t>I Sagha</t>
+  </si>
+  <si>
+    <t>BTC Egypt Gold</t>
+  </si>
+  <si>
+    <t>Selema Gold</t>
+  </si>
+  <si>
+    <t>Lazurde</t>
+  </si>
+  <si>
+    <t>Egypt Gold</t>
+  </si>
+  <si>
+    <t>kirmena</t>
+  </si>
+  <si>
+    <t>Swiss Gold</t>
+  </si>
+  <si>
+    <t>Bajocchi</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>مجتمع ثاندر</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +364,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -360,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -420,12 +467,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,6 +495,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="50.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -773,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -799,7 +864,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -822,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -837,15 +902,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -855,168 +920,147 @@
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1051,52 +1095,45 @@
     <hyperlink ref="B4" r:id="rId23" display="https://www.marketwatch.com/" xr:uid="{697D936E-6ABA-4C79-BDF1-6BD16F61F80D}"/>
     <hyperlink ref="A6" r:id="rId24" display="https://sa.investing.com/" xr:uid="{7A2E51BB-AC69-4695-8BB3-DAB6A40F310D}"/>
     <hyperlink ref="B6" r:id="rId25" display="https://www.mubasher.info/countries/eg" xr:uid="{BA55433B-41BD-4394-A213-C6A86278D0F0}"/>
-    <hyperlink ref="D6" r:id="rId26" display="https://www.facebook.com/groups/496551342015919" xr:uid="{279E9F47-E339-4455-85D2-4BDC18CC2B0C}"/>
-    <hyperlink ref="E6" r:id="rId27" display="https://www.youtube.com/@Dr.TarekAtef/videos" xr:uid="{B97216FF-449D-452B-9D8F-D432618ABFC6}"/>
-    <hyperlink ref="F6" r:id="rId28" display="https://www.youtube.com/c/Arabicbroker1/videos" xr:uid="{BFFD2CEE-A24C-4C5B-A55C-6C6A22ED7752}"/>
-    <hyperlink ref="G6" r:id="rId29" display="https://www.youtube.com/c/%D8%A7%D9%84%D8%A8%D9%88%D8%B1%D8%B5%D9%87%D9%85%D8%B9%D9%81%D8%A7%D8%B1%D9%88%D9%82/videos" xr:uid="{483ED73C-A05A-4F7F-BB16-8D7D54359A05}"/>
-    <hyperlink ref="C6" r:id="rId30" xr:uid="{BA54FCCD-4A96-4B26-BEFF-AE98883B3EA8}"/>
-    <hyperlink ref="A7" r:id="rId31" display="https://www.facebook.com/mmali83" xr:uid="{FE2CF1FC-629C-4716-B612-0BF528D0F44A}"/>
-    <hyperlink ref="B7" r:id="rId32" display="https://www.facebook.com/groups/qeyser.soze" xr:uid="{AEBF3669-A377-42A3-8032-530AF690AD4D}"/>
-    <hyperlink ref="C7" r:id="rId33" display="https://ipf.eg/" xr:uid="{E21DDBD8-B341-4E35-B614-DB94F5773C47}"/>
-    <hyperlink ref="D7" r:id="rId34" display="https://www.youtube.com/@elborsagia/videos" xr:uid="{72A1A09D-3816-45E2-A60E-FC8C62397DA4}"/>
-    <hyperlink ref="E7" r:id="rId35" display="https://www.facebook.com/borsacourses" xr:uid="{729CA1BF-3C0E-495D-A865-462A80764C4F}"/>
-    <hyperlink ref="A9" r:id="rId36" display="https://www.youtube.com/c/FinBeeAcademy/videos" xr:uid="{3C4F87BB-E2B6-4BA4-84A7-1EA9E610905A}"/>
-    <hyperlink ref="B9" r:id="rId37" display="https://www.youtube.com/c/GrowthEngine100/videos" xr:uid="{EAA98EBE-ECD3-43C5-B144-EE12A6873EF3}"/>
-    <hyperlink ref="C9" r:id="rId38" display="https://www.youtube.com/c/ehabmes/videos" xr:uid="{E72A32A6-DD4E-4A06-89F8-BCC96E55858F}"/>
-    <hyperlink ref="D9" r:id="rId39" display="https://www.youtube.com/c/E3melBusinessArabic/videos" xr:uid="{A0679EB0-239F-4947-B58C-95623817DF58}"/>
-    <hyperlink ref="E9" r:id="rId40" display="https://www.youtube.com/channel/UCCEn3Vf1_QDBVTuz9EXrDtw/videos" xr:uid="{504F78F4-0462-42AE-B2BF-0DD312AAFD1D}"/>
-    <hyperlink ref="F9" r:id="rId41" display="https://www.youtube.com/user/samatawy/videos" xr:uid="{F0D4991C-1EFA-498A-A8DD-B304C8B9E728}"/>
-    <hyperlink ref="G9" r:id="rId42" display="https://www.youtube.com/channel/UCZ4C_uCzDQYXOqwfDfzfRhQ/videos" xr:uid="{31EED12E-5CD0-419F-8AF2-EA0ED84E6975}"/>
-    <hyperlink ref="G10" r:id="rId43" display="https://www.youtube.com/channel/UCeR2z-G7ncZSWHIv3pOcegA/videos" xr:uid="{22C9832C-AC17-40D5-948D-D396D544C8C8}"/>
-    <hyperlink ref="A10" r:id="rId44" display="https://corporatefinanceinstitute.com/" xr:uid="{899EB61F-FFB9-45F9-9D53-DCD5AD77D4B9}"/>
-    <hyperlink ref="B10" r:id="rId45" display="https://www.facebook.com/Accounting.office.hatem/posts/719488698235998/" xr:uid="{99BF00BA-4CA3-4974-A99A-805210122F96}"/>
-    <hyperlink ref="C10" r:id="rId46" display="https://drive.google.com/drive/folders/0BzSN-W9vv152SHBaUF9UekdUNXM?fbclid=IwAR2aH0ObzqVzouPewjUUAEWq_6lz4ZJpWQoE41WRnhYo7pJWEV0qc4pEJrY&amp;resourcekey=0-20oUDhCfamMKTlXHvkSt7A" xr:uid="{4563E7B5-0CF6-4355-AC42-F4BF9AF22FB4}"/>
-    <hyperlink ref="D10" r:id="rId47" display="https://www.youtube.com/@user-qg8tu7xk6l/videos" xr:uid="{EC45EC9D-C463-4540-8C7A-5B2DC8BAB310}"/>
-    <hyperlink ref="E10" r:id="rId48" display="https://www.youtube.com/@AbdullahGalal/videos" xr:uid="{0C5CFDB7-36F6-4A16-9BE5-5B3D453857BD}"/>
-    <hyperlink ref="F10" r:id="rId49" display="https://www.youtube.com/@Accountingforever/videos" xr:uid="{065D8E59-D497-4BA6-AB44-FB9603DFB426}"/>
-    <hyperlink ref="A12" r:id="rId50" display="https://www.cbe.org.eg/ar/Pages/HighlightsListing.aspx" xr:uid="{7F629FBC-1CCC-49F4-884A-ED2D762C4AFB}"/>
-    <hyperlink ref="B12" r:id="rId51" display="https://www.ebi.gov.eg/?lang=ar" xr:uid="{9441585A-43C9-4196-8309-E81A38F6D670}"/>
-    <hyperlink ref="A13" r:id="rId52" display="https://www.banquemisr.com/ar" xr:uid="{EB35EEAB-899D-47AD-A113-343222CDF74A}"/>
-    <hyperlink ref="D12" r:id="rId53" display="https://www.instapay.eg/" xr:uid="{9F19217B-4E5E-46A7-A36F-DD4BE77C05FC}"/>
-    <hyperlink ref="D13" r:id="rId54" location="/AR/Home" display="https://www.nbe.com.eg/NBE/E/ - /AR/Home" xr:uid="{1DE57BD2-4AE9-44D8-B66D-CF9A707A72D2}"/>
-    <hyperlink ref="E12" r:id="rId55" display="https://www.incometax.gov.eg/" xr:uid="{2E46C8C3-9985-472D-A942-73E42C9CFB0A}"/>
-    <hyperlink ref="F12" r:id="rId56" display="https://www.eta.gov.eg/ar/news" xr:uid="{F5D62C12-A424-443B-8C90-7C2CD1B1DBC9}"/>
-    <hyperlink ref="F13" r:id="rId57" display="https://tfe.ebi.gov.eg/" xr:uid="{759ED415-7606-4748-B0EA-620D0AECA894}"/>
-    <hyperlink ref="B13" r:id="rId58" display="https://efhambusiness.com/index.php" xr:uid="{1D5E71F4-B79F-4251-BE50-A9B3B67DE276}"/>
-    <hyperlink ref="C13" r:id="rId59" display="https://www.alahlynet.com.eg/" xr:uid="{6F7FAC64-3F23-4315-B84D-C3AEB547D65A}"/>
-    <hyperlink ref="E13" r:id="rId60" display="https://www.egyptianbanks.com/" xr:uid="{CA46B6A3-5A76-4ED6-9FD0-76474873F3FC}"/>
-    <hyperlink ref="G12" r:id="rId61" display="https://www.paypal.com/eg/home" xr:uid="{D0FD99E4-C209-43BB-86FA-E60C506E1B84}"/>
+    <hyperlink ref="I13" location="Gold!A1" display="[Gold]" xr:uid="{BA54FCCD-4A96-4B26-BEFF-AE98883B3EA8}"/>
+    <hyperlink ref="C6" r:id="rId26" display="https://www.facebook.com/mmali83" xr:uid="{FE2CF1FC-629C-4716-B612-0BF528D0F44A}"/>
+    <hyperlink ref="D6" r:id="rId27" display="https://www.facebook.com/groups/qeyser.soze" xr:uid="{AEBF3669-A377-42A3-8032-530AF690AD4D}"/>
+    <hyperlink ref="A9" r:id="rId28" display="https://www.youtube.com/c/FinBeeAcademy/videos" xr:uid="{3C4F87BB-E2B6-4BA4-84A7-1EA9E610905A}"/>
+    <hyperlink ref="B9" r:id="rId29" display="https://www.youtube.com/c/GrowthEngine100/videos" xr:uid="{EAA98EBE-ECD3-43C5-B144-EE12A6873EF3}"/>
+    <hyperlink ref="C9" r:id="rId30" display="https://www.youtube.com/c/ehabmes/videos" xr:uid="{E72A32A6-DD4E-4A06-89F8-BCC96E55858F}"/>
+    <hyperlink ref="D9" r:id="rId31" display="https://www.youtube.com/c/E3melBusinessArabic/videos" xr:uid="{A0679EB0-239F-4947-B58C-95623817DF58}"/>
+    <hyperlink ref="E9" r:id="rId32" display="https://www.youtube.com/channel/UCCEn3Vf1_QDBVTuz9EXrDtw/videos" xr:uid="{504F78F4-0462-42AE-B2BF-0DD312AAFD1D}"/>
+    <hyperlink ref="F9" r:id="rId33" display="https://www.youtube.com/user/samatawy/videos" xr:uid="{F0D4991C-1EFA-498A-A8DD-B304C8B9E728}"/>
+    <hyperlink ref="G9" r:id="rId34" display="https://www.youtube.com/channel/UCZ4C_uCzDQYXOqwfDfzfRhQ/videos" xr:uid="{31EED12E-5CD0-419F-8AF2-EA0ED84E6975}"/>
+    <hyperlink ref="G10" r:id="rId35" display="https://www.youtube.com/channel/UCeR2z-G7ncZSWHIv3pOcegA/videos" xr:uid="{22C9832C-AC17-40D5-948D-D396D544C8C8}"/>
+    <hyperlink ref="A10" r:id="rId36" display="https://corporatefinanceinstitute.com/" xr:uid="{899EB61F-FFB9-45F9-9D53-DCD5AD77D4B9}"/>
+    <hyperlink ref="B10" r:id="rId37" display="https://www.facebook.com/Accounting.office.hatem/posts/719488698235998/" xr:uid="{99BF00BA-4CA3-4974-A99A-805210122F96}"/>
+    <hyperlink ref="C10" r:id="rId38" display="https://drive.google.com/drive/folders/0BzSN-W9vv152SHBaUF9UekdUNXM?fbclid=IwAR2aH0ObzqVzouPewjUUAEWq_6lz4ZJpWQoE41WRnhYo7pJWEV0qc4pEJrY&amp;resourcekey=0-20oUDhCfamMKTlXHvkSt7A" xr:uid="{4563E7B5-0CF6-4355-AC42-F4BF9AF22FB4}"/>
+    <hyperlink ref="D10" r:id="rId39" display="https://www.youtube.com/@user-qg8tu7xk6l/videos" xr:uid="{EC45EC9D-C463-4540-8C7A-5B2DC8BAB310}"/>
+    <hyperlink ref="E10" r:id="rId40" display="https://www.youtube.com/@AbdullahGalal/videos" xr:uid="{0C5CFDB7-36F6-4A16-9BE5-5B3D453857BD}"/>
+    <hyperlink ref="F10" r:id="rId41" display="https://www.youtube.com/@Accountingforever/videos" xr:uid="{065D8E59-D497-4BA6-AB44-FB9603DFB426}"/>
+    <hyperlink ref="A12" r:id="rId42" display="https://www.cbe.org.eg/ar/Pages/HighlightsListing.aspx" xr:uid="{7F629FBC-1CCC-49F4-884A-ED2D762C4AFB}"/>
+    <hyperlink ref="B12" r:id="rId43" display="https://www.ebi.gov.eg/?lang=ar" xr:uid="{9441585A-43C9-4196-8309-E81A38F6D670}"/>
+    <hyperlink ref="A13" r:id="rId44" display="https://www.banquemisr.com/ar" xr:uid="{EB35EEAB-899D-47AD-A113-343222CDF74A}"/>
+    <hyperlink ref="D12" r:id="rId45" display="https://www.instapay.eg/" xr:uid="{9F19217B-4E5E-46A7-A36F-DD4BE77C05FC}"/>
+    <hyperlink ref="D13" r:id="rId46" location="/AR/Home" display="https://www.nbe.com.eg/NBE/E/ - /AR/Home" xr:uid="{1DE57BD2-4AE9-44D8-B66D-CF9A707A72D2}"/>
+    <hyperlink ref="E12" r:id="rId47" display="https://www.incometax.gov.eg/" xr:uid="{2E46C8C3-9985-472D-A942-73E42C9CFB0A}"/>
+    <hyperlink ref="F12" r:id="rId48" display="https://www.eta.gov.eg/ar/news" xr:uid="{F5D62C12-A424-443B-8C90-7C2CD1B1DBC9}"/>
+    <hyperlink ref="F13" r:id="rId49" display="https://tfe.ebi.gov.eg/" xr:uid="{759ED415-7606-4748-B0EA-620D0AECA894}"/>
+    <hyperlink ref="B13" r:id="rId50" display="https://efhambusiness.com/index.php" xr:uid="{1D5E71F4-B79F-4251-BE50-A9B3B67DE276}"/>
+    <hyperlink ref="C13" r:id="rId51" display="https://www.alahlynet.com.eg/" xr:uid="{6F7FAC64-3F23-4315-B84D-C3AEB547D65A}"/>
+    <hyperlink ref="E13" r:id="rId52" display="https://www.egyptianbanks.com/" xr:uid="{CA46B6A3-5A76-4ED6-9FD0-76474873F3FC}"/>
+    <hyperlink ref="G12" r:id="rId53" display="https://www.paypal.com/eg/home" xr:uid="{D0FD99E4-C209-43BB-86FA-E60C506E1B84}"/>
     <hyperlink ref="I2" location="'FB Pages'!A1" display="Facebook Pages" xr:uid="{90B3F88A-480D-4335-881A-6C90AB1186A0}"/>
-    <hyperlink ref="A2" r:id="rId62" display="https://www.youtube.com/@ektesadmanzly/videos" xr:uid="{2E16729C-5D4B-4104-A268-2B9593468C87}"/>
+    <hyperlink ref="A2" r:id="rId54" display="https://www.youtube.com/@ektesadmanzly/videos" xr:uid="{2E16729C-5D4B-4104-A268-2B9593468C87}"/>
     <hyperlink ref="I3" location="Others!A1" display="FB Pages" xr:uid="{E63B2E9D-9F1B-4A51-944E-3D13A17347B7}"/>
-    <hyperlink ref="I1" r:id="rId63" display="FB Pages" xr:uid="{8421D763-5AD2-4423-9C87-FC97071C46B1}"/>
-    <hyperlink ref="C12" r:id="rId64" xr:uid="{6AB3CC67-BB58-4582-8D8C-40B38FEF3FA3}"/>
-    <hyperlink ref="G13" r:id="rId65" display="https://www.egyptpost.org/enpo/ar/joinUs" xr:uid="{1CE101B3-4C3A-4CCF-8695-36481898D16A}"/>
+    <hyperlink ref="I1" r:id="rId55" display="FB Pages" xr:uid="{8421D763-5AD2-4423-9C87-FC97071C46B1}"/>
+    <hyperlink ref="C12" r:id="rId56" xr:uid="{6AB3CC67-BB58-4582-8D8C-40B38FEF3FA3}"/>
+    <hyperlink ref="G13" r:id="rId57" display="https://www.egyptpost.org/enpo/ar/joinUs" xr:uid="{1CE101B3-4C3A-4CCF-8695-36481898D16A}"/>
     <hyperlink ref="I7" location="Borsa!A1" display="بورصة" xr:uid="{2D59AB0B-5C40-409A-B7B7-7D062031AF43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId66"/>
+  <pageSetup orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
 
@@ -1118,20 +1155,20 @@
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -1149,10 +1186,18 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1175,9 +1220,15 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1338,6 +1389,13 @@
     <hyperlink ref="C1" r:id="rId3" display="https://www.facebook.com/AzimutEgypt" xr:uid="{D9FF6839-C51B-4475-8BCB-1887EB8EE04C}"/>
     <hyperlink ref="D1" r:id="rId4" display="https://www.efghermesone.com/" xr:uid="{ACA9DA10-B019-4FD1-A563-A2228E8718CD}"/>
     <hyperlink ref="E1" r:id="rId5" display="https://www.facebook.com/thndrapp" xr:uid="{893C3F45-BF7B-434B-B7B5-15133846F92F}"/>
+    <hyperlink ref="A3" r:id="rId6" display="https://www.facebook.com/groups/496551342015919" xr:uid="{279E9F47-E339-4455-85D2-4BDC18CC2B0C}"/>
+    <hyperlink ref="B3" r:id="rId7" display="https://www.youtube.com/@Dr.TarekAtef/videos" xr:uid="{B97216FF-449D-452B-9D8F-D432618ABFC6}"/>
+    <hyperlink ref="C3" r:id="rId8" display="https://www.youtube.com/c/Arabicbroker1/videos" xr:uid="{BFFD2CEE-A24C-4C5B-A55C-6C6A22ED7752}"/>
+    <hyperlink ref="D3" r:id="rId9" display="https://www.youtube.com/c/%D8%A7%D9%84%D8%A8%D9%88%D8%B1%D8%B5%D9%87%D9%85%D8%B9%D9%81%D8%A7%D8%B1%D9%88%D9%82/videos" xr:uid="{483ED73C-A05A-4F7F-BB16-8D7D54359A05}"/>
+    <hyperlink ref="A5" r:id="rId10" display="https://ipf.eg/" xr:uid="{E21DDBD8-B341-4E35-B614-DB94F5773C47}"/>
+    <hyperlink ref="B5" r:id="rId11" display="https://www.youtube.com/@elborsagia/videos" xr:uid="{72A1A09D-3816-45E2-A60E-FC8C62397DA4}"/>
+    <hyperlink ref="C5" r:id="rId12" display="https://www.facebook.com/borsacourses" xr:uid="{729CA1BF-3C0E-495D-A865-462A80764C4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1345,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2D3BC2-1FD0-4C93-A9E6-602B2BEF9786}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1428,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1381,11 +1439,51 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>79</v>
-      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1398,6 +1496,8 @@
     <hyperlink ref="B3" r:id="rId6" display="https://www.facebook.com/mohamedhossamkhedr" xr:uid="{764CB613-9533-45C2-986C-96484E36650C}"/>
     <hyperlink ref="C3" r:id="rId7" display="https://www.facebook.com/profile.php?id=1062738043" xr:uid="{A92CDCAD-E4C5-4E50-98D9-F4C6CCEC85FB}"/>
     <hyperlink ref="D3" r:id="rId8" display="https://www.facebook.com/kareem.doghim" xr:uid="{DAEFF75A-C1ED-41A6-AC68-5B3DB6615BBA}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{DA456B37-B4C5-4C6F-B90F-1537E6A7E01F}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{D49D6411-BD52-4E77-9059-4B8032DABBBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1418,16 +1518,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1439,4 +1539,472 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461D63A7-16C4-4F4C-AA43-4F1FEF7C9863}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://egypt.gold-price-today.com/" xr:uid="{84DD3FFB-9337-4BD2-938C-93509726955A}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://market.isagha.com/" xr:uid="{997894A2-80B8-4461-81C1-D76ECCD88BD3}"/>
+    <hyperlink ref="C1" r:id="rId3" display="https://shop.btcegyptgold.com/" xr:uid="{73803514-89D4-4708-B5EE-E7E6FB164765}"/>
+    <hyperlink ref="D1" r:id="rId4" display="https://selemagold.com/" xr:uid="{75ED004B-6D06-41C1-B085-2F6FD527E317}"/>
+    <hyperlink ref="E1" r:id="rId5" display="https://lazurde.com/eg_ar" xr:uid="{800AA1EF-BA4B-4674-A96E-193FB2F10F60}"/>
+    <hyperlink ref="F1" r:id="rId6" display="https://egyptgold-eg.com/" xr:uid="{71A31B60-0438-4429-B683-8FE577726BFC}"/>
+    <hyperlink ref="G1" r:id="rId7" display="https://www.facebook.com/kirmenajewelry" xr:uid="{74DF429E-45CE-49AD-A85F-AC277522AE1C}"/>
+    <hyperlink ref="H1" r:id="rId8" display="https://swissgold.com.eg/" xr:uid="{C215254E-36E0-4DCB-81CD-B07562E5C79F}"/>
+    <hyperlink ref="I1" r:id="rId9" display="https://bajocchi.com/" xr:uid="{53478D03-3CA8-41CC-A247-28148E54E872}"/>
+    <hyperlink ref="J4" location="'0'!A1" display="Back" xr:uid="{41DE8574-7A87-4D70-9493-D6EE837BD9F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+</worksheet>
 </file>